--- a/biology/Médecine/Pierre_Ducimetière/Pierre_Ducimetière.xlsx
+++ b/biology/Médecine/Pierre_Ducimetière/Pierre_Ducimetière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Ducimeti%C3%A8re</t>
+          <t>Pierre_Ducimetière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Ducimetière, né le 6 juin 1942 à Sallanches en Haute-Savoie, est un épidémiologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Ducimeti%C3%A8re</t>
+          <t>Pierre_Ducimetière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Ducimetière a mené ses études secondaires au lycée Berthollet à Annecy puis au lycée du Parc à Lyon. Il réussit le concours d’entrée à l’École polytechnique où il est élève de 1962 à 1964. 
-Il intègre l'INSERM en 1965 sous l'impulsion de Daniel Schwartz et Philippe Lazar où il poursuit ses travaux sur les statistiques en épidémiologie dans le laboratoire du premier. Licence de mathématiques (1967), diplôme d’études approfondies sur la « théorie des signaux » à l’université Paris VI (1969), il soutient sa thèse de doctorat ès-sciences sur "la modélisation en électrophysiologie cardiaque" à l'université Pierre-et-Marie-Curie en 1975. Il est nommé maître de recherches de l'INSERM en 1976, puis directeur de recherche de 1ère classe (1990), directeur de recherche de classe exceptionnelle à l’INSERM (1998)[1].
+Il intègre l'INSERM en 1965 sous l'impulsion de Daniel Schwartz et Philippe Lazar où il poursuit ses travaux sur les statistiques en épidémiologie dans le laboratoire du premier. Licence de mathématiques (1967), diplôme d’études approfondies sur la « théorie des signaux » à l’université Paris VI (1969), il soutient sa thèse de doctorat ès-sciences sur "la modélisation en électrophysiologie cardiaque" à l'université Pierre-et-Marie-Curie en 1975. Il est nommé maître de recherches de l'INSERM en 1976, puis directeur de recherche de 1ère classe (1990), directeur de recherche de classe exceptionnelle à l’INSERM (1998).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Ducimeti%C3%A8re</t>
+          <t>Pierre_Ducimetière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Apport scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pierre Ducimetière a consacré sa carrière à l’épidémiologie (mieux nommée "science des populations") et à l’étude des facteurs de risque des maladies cardiovasculaires, dont la connaissance a permis de grandes avancées dans ces champs de recherche, notamment en France. En déterminant un ensemble de facteurs individuels, ses travaux ont ouvert la voie à d’importants progrès en matière de prévention des risques. C’est d’abord dans l’unité INSERM de recherches statistiques de Daniel Schwartz qu’il se passionne pour le domaine de l’épidémiologie cardiovasculaire. Il concrétise cet intérêt, dès 1967, en participant à “l’étude prospective parisienne”, rassemblant des cardiologues, des biologistes et des épidémiologistes, l’une des premières grandes enquêtes réalisées en France dans ce domaine. Elle a permis de faire avancer la recherche dans plusieurs domaines du risque coronaire, notamment l’importance d’un taux d’insuline élevé et d’une obésité de type androïde. Elle a également contribué à mettre en évidence le fait que les facteurs de risque habituels (cholestérol, diabète, hypertension, tabagisme) ne suffisent pas à expliquer les variations géographiques de l’incidence de la maladie. 
 Cette connaissance des risques cardio-vasculaires a vraisemblablement représenté le paradigme le plus abouti de la recherche épidémiologique en France. En déterminant un ensemble de facteurs individuels permettant d'effectuer une prédiction, elle a frayé la voie aux progrès thérapeutiques en matière de prévention. L'un de ses succès est le fait que les médecins praticiens ont progressivement adapté leur pratique à cet apport des connaissances épidémiologiques.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_Ducimeti%C3%A8re</t>
+          <t>Pierre_Ducimetière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1994 : Prix Benjamin-Delessert
 1999 : Prix de l’Institut des sciences de la santé
